--- a/documents/metric_title.xlsx
+++ b/documents/metric_title.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\get_data_insights\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="7068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="7065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="page" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="221">
   <si>
     <t>page_fans</t>
   </si>
@@ -456,13 +457,244 @@
   </si>
   <si>
     <t>Metric name</t>
+  </si>
+  <si>
+    <t>Metric Name</t>
+  </si>
+  <si>
+    <t>Values for `period`</t>
+  </si>
+  <si>
+    <t>The number of times your Page's posts entered a person's screen through unpaid distribution.</t>
+  </si>
+  <si>
+    <t>post_engaged_users*</t>
+  </si>
+  <si>
+    <t>The number of people who clicked anywhere in your posts.</t>
+  </si>
+  <si>
+    <t>lifetime</t>
+  </si>
+  <si>
+    <t>post_negative_feedback*</t>
+  </si>
+  <si>
+    <t>The number of times people took a negative action in your post (e.g. hid it).</t>
+  </si>
+  <si>
+    <t>post_negative_feedback_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who took a negative action in your post (e.g., hid it).</t>
+  </si>
+  <si>
+    <t>post_negative_feedback_by_type*</t>
+  </si>
+  <si>
+    <t>The number of times people took a negative action in your post broken down by type.</t>
+  </si>
+  <si>
+    <t>post_negative_feedback_by_type_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who took a negative action in your post broken down by type.</t>
+  </si>
+  <si>
+    <t>post_engaged_fan</t>
+  </si>
+  <si>
+    <t>People who have liked your Page and engaged with your post.</t>
+  </si>
+  <si>
+    <t>post_clicks*</t>
+  </si>
+  <si>
+    <t>The number of times people clicked on anywhere in your posts without generating a story.</t>
+  </si>
+  <si>
+    <t>post_clicks_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who clicked anywhere in your post without generating a story.</t>
+  </si>
+  <si>
+    <t>post_clicks_by_type*</t>
+  </si>
+  <si>
+    <t>The number of times people clicked on anywhere in your posts without generating a story, by consumption type.</t>
+  </si>
+  <si>
+    <t>post_clicks_by_type_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who clicked anywhere in your post without generating a story, by consumption type.</t>
+  </si>
+  <si>
+    <t>post_impressions*</t>
+  </si>
+  <si>
+    <t>The number of times your Page's post entered a person's screen. Posts include statuses, photos, links, videos and more.</t>
+  </si>
+  <si>
+    <t>post_impressions_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who had your Page's post enter their screen. Posts include statuses, photos, links, videos and more.</t>
+  </si>
+  <si>
+    <t>post_impressions_paid*</t>
+  </si>
+  <si>
+    <t>The number of times your Page's post entered a person's screen through paid distribution such as an ad.</t>
+  </si>
+  <si>
+    <t>post_impressions_paid_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who had your Page's post enter their screen through paid distribution such as an ad.</t>
+  </si>
+  <si>
+    <t>post_impressions_fan*</t>
+  </si>
+  <si>
+    <t>The number of impressions for your Page post by people who have liked your Page.</t>
+  </si>
+  <si>
+    <t>post_impressions_fan_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who have like your Page who saw your Page post.</t>
+  </si>
+  <si>
+    <t>post_impressions_fan_paid*</t>
+  </si>
+  <si>
+    <t>The number of impressions for your Page post by people who like your Page in an Ad or Sponsored Story.</t>
+  </si>
+  <si>
+    <t>post_impressions_fan_paid_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who have like your Page and saw your Page post in an Ad or Sponsored Story.</t>
+  </si>
+  <si>
+    <t>post_impressions_organic*</t>
+  </si>
+  <si>
+    <t>post_impressions_organic_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who had your Page's post enter their screen through unpaid distribution.</t>
+  </si>
+  <si>
+    <t>post_impressions_viral*</t>
+  </si>
+  <si>
+    <t>The number of times your Page's post entered a person's screen with social information attached. Social information displays when a person's friend interacted with you Page or post. This includes when someone's friend likes or follows your Page, engages with a post, shares a photo of your Page and checks into your Page.</t>
+  </si>
+  <si>
+    <t>post_impressions_viral_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who had your Page's post enter their screen with social information attached. As a form of organic distribution, social information displays when a person's friend interacted with you Page or post. This includes when someone's friend likes or follows your Page, engages with a post, shares a photo of your Page and checks into your Page.</t>
+  </si>
+  <si>
+    <t>post_impressions_nonviral*</t>
+  </si>
+  <si>
+    <t>The number of times your Page's post entered a person's screen. This does not include content created about your Page with social information attached. Social information displays when a person's friend interacted with you Page or post. This includes when someone's friend likes or follows your Page, engages with a post, shares a photo of your Page and checks into your Page.</t>
+  </si>
+  <si>
+    <t>post_impressions_nonviral_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who had your Page's post enter their screen. This does not include content created about your Page with social information attached. As a form of organic distribution, social information displays when a person's friend interacted with you Page or post. This includes when someone's friend likes or follows your Page, engages with a post, shares a photo of your Page and checks into your Page.</t>
+  </si>
+  <si>
+    <t>post_impressions_by_story_type*</t>
+  </si>
+  <si>
+    <t>The number of times this post was seen via a story published by a friend of the person viewing the post.</t>
+  </si>
+  <si>
+    <t>post_impressions_by_story_type_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who saw your Page post in a story from a friend, by story type.</t>
+  </si>
+  <si>
+    <t>post_reactions_like_total</t>
+  </si>
+  <si>
+    <t>Total "like" reactions of a post.</t>
+  </si>
+  <si>
+    <t>post_reactions_love_total</t>
+  </si>
+  <si>
+    <t>Total "love" reactions of a post.</t>
+  </si>
+  <si>
+    <t>post_reactions_wow_total</t>
+  </si>
+  <si>
+    <t>Total "wow" reactions of a post.</t>
+  </si>
+  <si>
+    <t>post_reactions_haha_total</t>
+  </si>
+  <si>
+    <t>Total "haha" reactions of a post.</t>
+  </si>
+  <si>
+    <t>post_reactions_sorry_total</t>
+  </si>
+  <si>
+    <t>Total "sad" reactions of a post.</t>
+  </si>
+  <si>
+    <t>post_reactions_anger_total</t>
+  </si>
+  <si>
+    <t>Total "anger" reactions of a post.</t>
+  </si>
+  <si>
+    <t>post_reactions_by_type_total</t>
+  </si>
+  <si>
+    <t>Total post reactions by type.</t>
+  </si>
+  <si>
+    <t>post_activity*</t>
+  </si>
+  <si>
+    <t>The number of stories generated about your Page post ('Stories').</t>
+  </si>
+  <si>
+    <t>post_activity_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who created a story about your Page post ('People Talking About This' / PTAT).</t>
+  </si>
+  <si>
+    <t>post_activity_by_action_type*</t>
+  </si>
+  <si>
+    <t>The number of stories created about your Page post, by action type.</t>
+  </si>
+  <si>
+    <t>post_activity_by_action_type_unique*</t>
+  </si>
+  <si>
+    <t>The number of people who created a story about your Page post, by action type.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +829,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,8 +1072,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -900,6 +1194,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -945,7 +1319,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -966,34 +1340,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1317,18 +1682,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
@@ -1339,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1372,7 +1737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1383,239 +1748,239 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -1625,246 +1990,686 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
+    <row r="37" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
+    <row r="38" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="35" t="s">
         <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="133.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/documents/metric_title.xlsx
+++ b/documents/metric_title.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="7065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="post" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -886,7 +886,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,6 +1075,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,7 +1331,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1357,8 +1369,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1682,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,421 +2268,458 @@
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="D6" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="D12" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="D16" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="D27" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="D28" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="D29" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="D30" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="D31" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="D32" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="D33" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="C34" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="D36" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="D37" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="40" t="s">
         <v>149</v>
       </c>
     </row>
